--- a/src/main/webapp/schedules/HIB.xlsx
+++ b/src/main/webapp/schedules/HIB.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCHWorkspaceJava6\fv\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B5A28-5D8A-4CFB-957B-689DD26D8219}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="0" windowWidth="14295" windowHeight="8190" tabRatio="330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedules" sheetId="1" r:id="rId1"/>
-    <sheet name="XML" sheetId="2" r:id="rId2"/>
-    <sheet name="Intervals" sheetId="4" r:id="rId3"/>
+    <sheet name="Temp" sheetId="5" r:id="rId1"/>
+    <sheet name="Schedules" sheetId="1" r:id="rId2"/>
+    <sheet name="XML" sheetId="2" r:id="rId3"/>
+    <sheet name="Intervals" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$J$231</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Schedules!$A$1:$J$231</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="279">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -41,12 +51,6 @@
     <t>Vaccine</t>
   </si>
   <si>
-    <t>Trade Name(s)</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>DTaP-Hib</t>
   </si>
   <si>
@@ -56,15 +60,9 @@
     <t>PRP-OMP</t>
   </si>
   <si>
-    <t>136, 1350</t>
-  </si>
-  <si>
     <t>DTaP-Hib-IPV</t>
   </si>
   <si>
-    <t>Pentacel</t>
-  </si>
-  <si>
     <t>Series Dose</t>
   </si>
   <si>
@@ -83,27 +81,12 @@
     <t>Hib (PRP-T)</t>
   </si>
   <si>
-    <t>Hib-HepB</t>
-  </si>
-  <si>
-    <t>COMVAX</t>
-  </si>
-  <si>
     <t>DTP-Hib</t>
   </si>
   <si>
-    <t>Tetra-immune</t>
-  </si>
-  <si>
     <t>Hib (PRP-D)</t>
   </si>
   <si>
-    <t>DTaP-IPV-Hib-HepB</t>
-  </si>
-  <si>
-    <t>Pentavalente</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
@@ -338,12 +321,6 @@
     <t>0 days</t>
   </si>
   <si>
-    <t>MenHibrix</t>
-  </si>
-  <si>
-    <t>Meningococcal C/Y-HIB PRP 148 Meningococcal C/Y-HIB PRP</t>
-  </si>
-  <si>
     <t>Transitions</t>
   </si>
   <si>
@@ -431,22 +408,475 @@
     <t>*</t>
   </si>
   <si>
-    <t>Hexavalente</t>
-  </si>
-  <si>
-    <t>128, 1320, 1330, 1340, 136, 1350, 115, 121, 142, 213, 227</t>
-  </si>
-  <si>
-    <t>DTaP/IPV/Hib (Non-US)</t>
-  </si>
-  <si>
-    <t>128, 1330, 1340, 136, 1350, 113, 121, 1320, 115, 121, 213, 227</t>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>CVX Label</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>DTaP, 5 pertussis antigens</t>
+  </si>
+  <si>
+    <t>DTaP, unspecified formulation</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>DT (pediatric)</t>
+  </si>
+  <si>
+    <t>DTaP-Hep B-IPV</t>
+  </si>
+  <si>
+    <t>DTaP-IPV</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Td (adult), adsorbed</t>
+  </si>
+  <si>
+    <t>Td (adult)</t>
+  </si>
+  <si>
+    <t>Td(adult) unspecified formulation</t>
+  </si>
+  <si>
+    <t>Tdap</t>
+  </si>
+  <si>
+    <t>Td (adult) preservative free</t>
+  </si>
+  <si>
+    <t>Hib, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hib-Hep B</t>
+  </si>
+  <si>
+    <t>Hep B, unspecified formulation</t>
+  </si>
+  <si>
+    <t>DTaP-IPV-HIB-HEP B, historical</t>
+  </si>
+  <si>
+    <t>DTaP,IPV,Hib,HepB</t>
+  </si>
+  <si>
+    <t>Hep A, pediatric, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hep A, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hep A-Hep B</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>OPV</t>
+  </si>
+  <si>
+    <t>polio, unspecified formulation</t>
+  </si>
+  <si>
+    <t>pneumococcal conjugate PCV 7</t>
+  </si>
+  <si>
+    <t>pneumococcal polysaccharide PPV23</t>
+  </si>
+  <si>
+    <t>pneumococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Pneumococcal Conjugate, unspecified formulation</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MMRV</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>M/R</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>measles</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>mumps</t>
+  </si>
+  <si>
+    <t>meningococcal B, recombinant</t>
+  </si>
+  <si>
+    <t>meningococcal B, OMV</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>rubella</t>
+  </si>
+  <si>
+    <t>rubella/mumps</t>
+  </si>
+  <si>
+    <t>varicella</t>
+  </si>
+  <si>
+    <t>influenza, whole</t>
+  </si>
+  <si>
+    <t>influenza, unspecified formulation</t>
+  </si>
+  <si>
+    <t>influenza, recombinant, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, injectable,quadrivalent, preservative free, pediatric</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal</t>
+  </si>
+  <si>
+    <t>influenza, split (incl. purified surface antigen)</t>
+  </si>
+  <si>
+    <t>meningococcal MPSV4</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4P</t>
+  </si>
+  <si>
+    <t>meningococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Influenza, high dose seasonal</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, all formulations</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, nasal</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09, preservative-free</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09</t>
+  </si>
+  <si>
+    <t>meningococcal C conjugate</t>
+  </si>
+  <si>
+    <t>Meningococcal MCV4O</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable</t>
+  </si>
+  <si>
+    <t>influenza, intradermal, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, seasonal, intradermal, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal, quadrivalent</t>
+  </si>
+  <si>
+    <t>influenza nasal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent</t>
+  </si>
+  <si>
+    <t>rotavirus, monovalent</t>
+  </si>
+  <si>
+    <t>rotavirus, pentavalent</t>
+  </si>
+  <si>
+    <t>rotavirus, tetravalent</t>
+  </si>
+  <si>
+    <t>Lyme disease</t>
+  </si>
+  <si>
+    <t>rabies, intramuscular injection</t>
+  </si>
+  <si>
+    <t>rabies, intradermal injection</t>
+  </si>
+  <si>
+    <t>rabies, unspecified formulation</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>rotavirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Meningococcal C/Y-HIB PRP</t>
+  </si>
+  <si>
+    <t>HPV9</t>
+  </si>
+  <si>
+    <t>HPV, quadrivalent</t>
+  </si>
+  <si>
+    <t>HPV, bivalent</t>
+  </si>
+  <si>
+    <t>HPV, unspecified formulation</t>
+  </si>
+  <si>
+    <t>adenovirus, type 4</t>
+  </si>
+  <si>
+    <t>adenovirus, type 7</t>
+  </si>
+  <si>
+    <t>adenovirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>anthrax</t>
+  </si>
+  <si>
+    <t>botulinum antitoxin</t>
+  </si>
+  <si>
+    <t>cholera</t>
+  </si>
+  <si>
+    <t>CMVIG</t>
+  </si>
+  <si>
+    <t>dengue fever</t>
+  </si>
+  <si>
+    <t>diphtheria antitoxin</t>
+  </si>
+  <si>
+    <t>hantavirus</t>
+  </si>
+  <si>
+    <t>Hep A, adult</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 2 dose</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 3 dose</t>
+  </si>
+  <si>
+    <t>HBIG</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent or pediatric</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent/high risk infant</t>
+  </si>
+  <si>
+    <t>Hep B, adult</t>
+  </si>
+  <si>
+    <t>Hep B, dialysis</t>
+  </si>
+  <si>
+    <t>Hep E</t>
+  </si>
+  <si>
+    <t>herpes simplex 2</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IGIV</t>
+  </si>
+  <si>
+    <t>IG, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Japanese encephalitis SC</t>
+  </si>
+  <si>
+    <t>Japanese Encephalitis IM</t>
+  </si>
+  <si>
+    <t>leishmaniasis</t>
+  </si>
+  <si>
+    <t>leprosy</t>
+  </si>
+  <si>
+    <t>malaria</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>parainfluenza-3</t>
+  </si>
+  <si>
+    <t>pertussis</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>Q fever</t>
+  </si>
+  <si>
+    <t>rheumatic fever</t>
+  </si>
+  <si>
+    <t>Rift Valley fever</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>RSV-IGIV</t>
+  </si>
+  <si>
+    <t>RSV-MAb</t>
+  </si>
+  <si>
+    <t>vaccinia (smallpox)</t>
+  </si>
+  <si>
+    <t>Staphylococcus bacterio lysate</t>
+  </si>
+  <si>
+    <t>tetanus toxoid, adsorbed</t>
+  </si>
+  <si>
+    <t>tick-borne encephalitis</t>
+  </si>
+  <si>
+    <t>TIG</t>
+  </si>
+  <si>
+    <t>TST-OT tine test</t>
+  </si>
+  <si>
+    <t>TST-PPD intradermal</t>
+  </si>
+  <si>
+    <t>TST-PPD tine test</t>
+  </si>
+  <si>
+    <t>TST, unspecified formulation</t>
+  </si>
+  <si>
+    <t>tularemia vaccine</t>
+  </si>
+  <si>
+    <t>typhoid, oral</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral, AKD (U.S. military)</t>
+  </si>
+  <si>
+    <t>typhoid, ViCPs</t>
+  </si>
+  <si>
+    <t>typhoid, unspecified formulation</t>
+  </si>
+  <si>
+    <t>vaccinia immune globulin</t>
+  </si>
+  <si>
+    <t>VEE, inactivated</t>
+  </si>
+  <si>
+    <t>VEE, live</t>
+  </si>
+  <si>
+    <t>VEE, unspecified formulation</t>
+  </si>
+  <si>
+    <t>VZIG</t>
+  </si>
+  <si>
+    <t>yellow fever</t>
+  </si>
+  <si>
+    <t>zoster</t>
+  </si>
+  <si>
+    <t>typhus, historical</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate PCV 13</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>51, 49</t>
+  </si>
+  <si>
+    <t>120, 17, 47, 49, 48, 51, 22, 46, 132, 120, 148</t>
+  </si>
+  <si>
+    <t>CVX Code</t>
+  </si>
+  <si>
+    <t>50, 120, 17, 47, 49, 48, 51, 22, 46, 120, 148</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -516,7 +946,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +1011,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -859,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -905,9 +1341,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,16 +1367,32 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,7 +1524,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,11 +1906,1681 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDF0C49-129D-40A1-850E-2A38F92FB27A}">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>116</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>122</v>
+      </c>
+      <c r="B13">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>136</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>142</v>
+      </c>
+      <c r="B20">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>142</v>
+      </c>
+      <c r="B21">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>145</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>145</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>146</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>147</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>153</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>155</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>156</v>
+      </c>
+      <c r="B31">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>159</v>
+      </c>
+      <c r="B33">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>162</v>
+      </c>
+      <c r="B37">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>163</v>
+      </c>
+      <c r="B38">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>175</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>179</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>179</v>
+      </c>
+      <c r="B43">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>179</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>179</v>
+      </c>
+      <c r="B45">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>184</v>
+      </c>
+      <c r="B51">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>185</v>
+      </c>
+      <c r="B52">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>186</v>
+      </c>
+      <c r="B53">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>187</v>
+      </c>
+      <c r="B54">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>188</v>
+      </c>
+      <c r="B55">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>197</v>
+      </c>
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>198</v>
+      </c>
+      <c r="B58">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>200</v>
+      </c>
+      <c r="B59">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>201</v>
+      </c>
+      <c r="B60">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>202</v>
+      </c>
+      <c r="B61">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>202</v>
+      </c>
+      <c r="B62">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>203</v>
+      </c>
+      <c r="B63">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>203</v>
+      </c>
+      <c r="B64">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>204</v>
+      </c>
+      <c r="B65">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>204</v>
+      </c>
+      <c r="B66">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>206</v>
+      </c>
+      <c r="B67">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>208</v>
+      </c>
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>209</v>
+      </c>
+      <c r="B70">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>210</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>210</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>210</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>211</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>212</v>
+      </c>
+      <c r="B75">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>213</v>
+      </c>
+      <c r="B76">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>214</v>
+      </c>
+      <c r="B77">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>215</v>
+      </c>
+      <c r="B78">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>216</v>
+      </c>
+      <c r="B79">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>390</v>
+      </c>
+      <c r="B80">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>391</v>
+      </c>
+      <c r="B81">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>391</v>
+      </c>
+      <c r="B82">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1010</v>
+      </c>
+      <c r="B84">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1020</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1030</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1050</v>
+      </c>
+      <c r="B87">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1060</v>
+      </c>
+      <c r="B88">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1070</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1080</v>
+      </c>
+      <c r="B90">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1090</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1150</v>
+      </c>
+      <c r="B92">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1160</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1170</v>
+      </c>
+      <c r="B94">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1180</v>
+      </c>
+      <c r="B95">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1190</v>
+      </c>
+      <c r="B96">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1230</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1240</v>
+      </c>
+      <c r="B98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1250</v>
+      </c>
+      <c r="B99">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1260</v>
+      </c>
+      <c r="B100">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1270</v>
+      </c>
+      <c r="B101">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1300</v>
+      </c>
+      <c r="B102">
+        <v>59</v>
+      </c>
+      <c r="C102" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1310</v>
+      </c>
+      <c r="B103">
+        <v>60</v>
+      </c>
+      <c r="C103" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1320</v>
+      </c>
+      <c r="B104">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1330</v>
+      </c>
+      <c r="B105">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1340</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1350</v>
+      </c>
+      <c r="B107">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1400</v>
+      </c>
+      <c r="B108">
+        <v>86</v>
+      </c>
+      <c r="C108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1410</v>
+      </c>
+      <c r="B109">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1420</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1490</v>
+      </c>
+      <c r="B111">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1491</v>
+      </c>
+      <c r="B112">
+        <v>134</v>
+      </c>
+      <c r="C112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1510</v>
+      </c>
+      <c r="B113">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1520</v>
+      </c>
+      <c r="B114">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1570</v>
+      </c>
+      <c r="B115">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1590</v>
+      </c>
+      <c r="B116">
+        <v>68</v>
+      </c>
+      <c r="C116" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1630</v>
+      </c>
+      <c r="B117">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1640</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1650</v>
+      </c>
+      <c r="B119">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1680</v>
+      </c>
+      <c r="B120">
+        <v>70</v>
+      </c>
+      <c r="C120" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1720</v>
+      </c>
+      <c r="B121">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1730</v>
+      </c>
+      <c r="B122">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1740</v>
+      </c>
+      <c r="B123">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1760</v>
+      </c>
+      <c r="B124">
+        <v>71</v>
+      </c>
+      <c r="C124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1770</v>
+      </c>
+      <c r="B125">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1800</v>
+      </c>
+      <c r="B126">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1810</v>
+      </c>
+      <c r="B127">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1830</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1840</v>
+      </c>
+      <c r="B129">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1850</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1860</v>
+      </c>
+      <c r="B131">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1870</v>
+      </c>
+      <c r="B132">
+        <v>96</v>
+      </c>
+      <c r="C132" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1880</v>
+      </c>
+      <c r="B133">
+        <v>97</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1890</v>
+      </c>
+      <c r="B134">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1900</v>
+      </c>
+      <c r="B135">
+        <v>78</v>
+      </c>
+      <c r="C135" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1910</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1920</v>
+      </c>
+      <c r="B137">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1930</v>
+      </c>
+      <c r="B138">
+        <v>53</v>
+      </c>
+      <c r="C138" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1940</v>
+      </c>
+      <c r="B139">
+        <v>101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1950</v>
+      </c>
+      <c r="B140">
+        <v>91</v>
+      </c>
+      <c r="C140" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1960</v>
+      </c>
+      <c r="B141">
+        <v>79</v>
+      </c>
+      <c r="C141" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1980</v>
+      </c>
+      <c r="B142">
+        <v>81</v>
+      </c>
+      <c r="C142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1990</v>
+      </c>
+      <c r="B143">
+        <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2000</v>
+      </c>
+      <c r="B144">
+        <v>92</v>
+      </c>
+      <c r="C144" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2010</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2020</v>
+      </c>
+      <c r="B146">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2110</v>
+      </c>
+      <c r="B147">
+        <v>121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>3141</v>
+      </c>
+      <c r="B148">
+        <v>131</v>
+      </c>
+      <c r="C148" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>3143</v>
+      </c>
+      <c r="B149">
+        <v>133</v>
+      </c>
+      <c r="C149" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>9999</v>
+      </c>
+      <c r="B150">
+        <v>999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1482,8 +3601,8 @@
     <col min="25" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1491,15 +3610,15 @@
       <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1510,2085 +3629,2070 @@
       <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="22" t="s">
-        <v>5</v>
-      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="23"/>
       <c r="J3" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="D4" s="26"/>
       <c r="F4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="F5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="24">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="F5" s="25" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="F6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="39">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25" t="s">
+      <c r="C7" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="F7" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="48"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="F8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="F6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="24">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="F7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="24">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="F8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="24">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="25">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="38">
+        <v>50</v>
       </c>
       <c r="D9" s="26"/>
       <c r="F9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="24">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="39">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C10" s="25">
         <v>-7</v>
       </c>
       <c r="D10" s="26"/>
       <c r="F10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25"/>
+        <v>14</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="24">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C11" s="25">
         <v>-12</v>
       </c>
       <c r="D11" s="26"/>
       <c r="F11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="25" t="s">
-        <v>20</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="24">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="39">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C12" s="25">
         <v>-15</v>
       </c>
       <c r="D12" s="26"/>
       <c r="F12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="39">
         <v>22</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="24">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="24">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="J13" s="39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="F14" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="39">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="25" t="s">
-        <v>25</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="24">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="39">
+        <v>120</v>
+      </c>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D16" s="24">
         <v>-7</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="25" t="s">
-        <v>104</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="24">
-        <v>213</v>
+      <c r="J16" s="39">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D17" s="24">
         <v>-12</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="28"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D18" s="24">
         <v>-15</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
     </row>
     <row r="48" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="32">
+        <v>1</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="33"/>
+      <c r="C64" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="31" t="s">
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="C65" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="33">
-        <v>1</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="34"/>
-      <c r="C64" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="D65" s="24"/>
       <c r="E65" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="35" t="s">
-        <v>41</v>
+      <c r="B66" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="35" t="s">
-        <v>42</v>
+      <c r="B67" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="35" t="s">
-        <v>43</v>
+      <c r="B68" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="35" t="s">
-        <v>46</v>
+      <c r="B69" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="36"/>
+      <c r="B70" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="35"/>
       <c r="D70" s="24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E70" s="24"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="36"/>
+      <c r="B71" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="35"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
+      <c r="B72" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="36" t="s">
         <v>110</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="37" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D75" s="24"/>
-      <c r="E75" s="37" t="s">
-        <v>57</v>
+      <c r="E75" s="36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D76" s="24"/>
-      <c r="E76" s="37"/>
+      <c r="E76" s="36"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D77" s="24"/>
-      <c r="E77" s="37" t="s">
-        <v>63</v>
+      <c r="E77" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="35" t="s">
-        <v>62</v>
+      <c r="B78" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C78" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="35" t="s">
-        <v>64</v>
+      <c r="B79" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C79" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="33"/>
+      <c r="C84" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C81" s="31" t="s">
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32" t="s">
+      <c r="C85" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="44" t="s">
+      <c r="D85" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="34"/>
-      <c r="C84" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="35" t="s">
-        <v>42</v>
+      <c r="B87" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="35" t="s">
-        <v>43</v>
+      <c r="B88" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="35" t="s">
-        <v>46</v>
+      <c r="B89" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="36"/>
+      <c r="B90" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="35"/>
       <c r="D90" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="36"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
+      <c r="B92" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D94" s="24"/>
-      <c r="E94" s="37"/>
+      <c r="E94" s="36"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D95" s="24"/>
-      <c r="E95" s="37"/>
+      <c r="E95" s="36"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D96" s="24"/>
-      <c r="E96" s="37"/>
+      <c r="E96" s="36"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="35" t="s">
-        <v>62</v>
+      <c r="B97" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C97" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="35" t="s">
-        <v>64</v>
+      <c r="B98" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C98" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="49"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="33"/>
+      <c r="C103" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="31" t="s">
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="34"/>
-      <c r="C103" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="C104" s="24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="35" t="s">
-        <v>41</v>
+      <c r="B105" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="35" t="s">
-        <v>42</v>
+      <c r="B106" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="35" t="s">
-        <v>43</v>
+      <c r="B107" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="35" t="s">
-        <v>46</v>
+      <c r="B108" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="36"/>
+      <c r="B109" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="35"/>
       <c r="D109" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E109" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" s="36"/>
+      <c r="C110" s="35"/>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
+      <c r="B111" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D113" s="24"/>
-      <c r="E113" s="37" t="s">
-        <v>122</v>
+      <c r="E113" s="36" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D114" s="24"/>
-      <c r="E114" s="37"/>
+      <c r="E114" s="36"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="37" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="E115" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D116" s="24"/>
-      <c r="E116" s="37"/>
+      <c r="E116" s="36"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="35" t="s">
-        <v>62</v>
+      <c r="B117" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C117" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="35" t="s">
-        <v>64</v>
+      <c r="B118" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C118" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="49"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="33"/>
+      <c r="C123" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C120" s="31" t="s">
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="34"/>
-      <c r="C123" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="C124" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="35" t="s">
-        <v>41</v>
+      <c r="B125" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="C125" s="24"/>
       <c r="D125" s="24"/>
       <c r="E125" s="24"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="35" t="s">
-        <v>42</v>
+      <c r="B126" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D126" s="24"/>
       <c r="E126" s="24"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="35" t="s">
-        <v>43</v>
+      <c r="B127" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D127" s="24"/>
       <c r="E127" s="24"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="35" t="s">
-        <v>46</v>
+      <c r="B128" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129" s="36"/>
+      <c r="B129" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="35"/>
       <c r="D129" s="24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C130" s="36"/>
+      <c r="B130" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="35"/>
       <c r="D130" s="24"/>
       <c r="E130" s="24"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
+      <c r="B131" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="49"/>
+      <c r="D131" s="49"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D133" s="24"/>
-      <c r="E133" s="37"/>
+      <c r="E133" s="36"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="35" t="s">
-        <v>62</v>
+      <c r="B134" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C134" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="35" t="s">
-        <v>64</v>
+      <c r="B135" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C135" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="31" t="s">
+      <c r="B137" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C138" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="33"/>
+      <c r="C140" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C137" s="31" t="s">
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E137" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C138" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="44"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="44"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="34"/>
-      <c r="C140" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="C141" s="24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="35" t="s">
-        <v>41</v>
+      <c r="B142" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="C142" s="24"/>
       <c r="D142" s="24"/>
       <c r="E142" s="24"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="35" t="s">
-        <v>42</v>
+      <c r="B143" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D143" s="24"/>
       <c r="E143" s="24"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="35" t="s">
-        <v>43</v>
+      <c r="B144" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D144" s="24"/>
       <c r="E144" s="24"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="35" t="s">
-        <v>46</v>
+      <c r="B145" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D145" s="24"/>
       <c r="E145" s="24"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C146" s="36"/>
+      <c r="B146" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" s="35"/>
       <c r="D146" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E146" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C147" s="36"/>
+      <c r="C147" s="35"/>
       <c r="D147" s="24"/>
       <c r="E147" s="24"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
+      <c r="B148" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D150" s="24"/>
-      <c r="E150" s="37" t="s">
-        <v>125</v>
+      <c r="E150" s="36" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D151" s="24"/>
-      <c r="E151" s="37"/>
+      <c r="E151" s="36"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D152" s="24"/>
-      <c r="E152" s="37" t="s">
-        <v>117</v>
+      <c r="E152" s="36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D153" s="24"/>
-      <c r="E153" s="37" t="s">
-        <v>73</v>
+      <c r="E153" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="35" t="s">
-        <v>62</v>
+      <c r="B154" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C154" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="35" t="s">
-        <v>64</v>
+      <c r="B155" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C155" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="31" t="s">
+      <c r="B157" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C158" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="49"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="33"/>
+      <c r="C160" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C157" s="31" t="s">
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E157" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C158" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C159" s="44"/>
-      <c r="D159" s="44"/>
-      <c r="E159" s="44"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="34"/>
-      <c r="C160" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D160" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="C161" s="24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D161" s="24"/>
       <c r="E161" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="35" t="s">
-        <v>41</v>
+      <c r="B162" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="35" t="s">
-        <v>42</v>
+      <c r="B163" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D163" s="24"/>
       <c r="E163" s="24"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="35" t="s">
-        <v>43</v>
+      <c r="B164" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D164" s="24"/>
       <c r="E164" s="24"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="35" t="s">
-        <v>46</v>
+      <c r="B165" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D165" s="24"/>
       <c r="E165" s="24"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C166" s="36"/>
+      <c r="B166" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" s="35"/>
       <c r="D166" s="24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E166" s="24"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C167" s="36"/>
+      <c r="B167" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="35"/>
       <c r="D167" s="24"/>
       <c r="E167" s="24"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C168" s="44"/>
-      <c r="D168" s="44"/>
+      <c r="B168" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D170" s="24"/>
-      <c r="E170" s="37" t="s">
-        <v>119</v>
+      <c r="E170" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D171" s="24"/>
-      <c r="E171" s="37"/>
+      <c r="E171" s="36"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D172" s="24"/>
-      <c r="E172" s="37" t="s">
-        <v>63</v>
+      <c r="E172" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="35" t="s">
-        <v>62</v>
+      <c r="B173" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C173" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="35" t="s">
-        <v>64</v>
+      <c r="B174" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C174" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="49"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="49"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="33"/>
+      <c r="C179" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C176" s="31" t="s">
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C177" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C178" s="44"/>
-      <c r="D178" s="44"/>
-      <c r="E178" s="44"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="34"/>
-      <c r="C179" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D179" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E179" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="C180" s="24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E180" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="35" t="s">
-        <v>41</v>
+      <c r="B181" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="24"/>
       <c r="E181" s="24"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="35" t="s">
-        <v>42</v>
+      <c r="B182" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C182" s="24"/>
       <c r="D182" s="24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E182" s="24"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B183" s="35" t="s">
-        <v>43</v>
+      <c r="B183" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C183" s="24"/>
       <c r="D183" s="24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E183" s="24"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" s="35" t="s">
-        <v>46</v>
+      <c r="B184" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D184" s="24"/>
       <c r="E184" s="24"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B185" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C185" s="36"/>
+      <c r="B185" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C185" s="35"/>
       <c r="D185" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E185" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B186" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C186" s="36"/>
+      <c r="C186" s="35"/>
       <c r="D186" s="24"/>
       <c r="E186" s="24"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C187" s="44"/>
-      <c r="D187" s="44"/>
+      <c r="B187" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C187" s="49"/>
+      <c r="D187" s="49"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D189" s="24"/>
-      <c r="E189" s="37" t="s">
-        <v>128</v>
+      <c r="E189" s="36" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D190" s="24"/>
-      <c r="E190" s="37" t="s">
-        <v>133</v>
+      <c r="E190" s="36" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E191" s="37" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="E191" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="35" t="s">
-        <v>62</v>
+      <c r="B192" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C192" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="35" t="s">
-        <v>64</v>
+      <c r="B193" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C193" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B195" s="31" t="s">
+      <c r="B195" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="49"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="49"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="33"/>
+      <c r="C198" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C195" s="31" t="s">
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E195" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B196" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C196" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="44" t="s">
+      <c r="C199" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="C197" s="44"/>
-      <c r="D197" s="44"/>
-      <c r="E197" s="44"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B198" s="34"/>
-      <c r="C198" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E198" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B199" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C199" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D199" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E199" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B200" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="24"/>
       <c r="E200" s="24"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B201" s="35" t="s">
-        <v>42</v>
+      <c r="B201" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D201" s="24"/>
       <c r="E201" s="24"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B202" s="35" t="s">
-        <v>43</v>
+      <c r="B202" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D202" s="24"/>
       <c r="E202" s="24"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B203" s="35" t="s">
-        <v>46</v>
+      <c r="B203" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D203" s="24"/>
       <c r="E203" s="24"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B204" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C204" s="36"/>
+      <c r="B204" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" s="35"/>
       <c r="D204" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E204" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E204" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B205" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C205" s="36"/>
+      <c r="C205" s="35"/>
       <c r="D205" s="24"/>
       <c r="E205" s="24"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C206" s="44"/>
-      <c r="D206" s="44"/>
+      <c r="B206" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" s="49"/>
+      <c r="D206" s="49"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E207" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" s="24" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D208" s="24"/>
-      <c r="E208" s="37" t="s">
-        <v>129</v>
+      <c r="E208" s="36" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D209" s="24"/>
-      <c r="E209" s="37"/>
+      <c r="E209" s="36"/>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D210" s="24"/>
-      <c r="E210" s="37" t="s">
-        <v>63</v>
+      <c r="E210" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E211" s="37" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="E211" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B212" s="35" t="s">
-        <v>62</v>
+      <c r="B212" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C212" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="35" t="s">
-        <v>64</v>
+      <c r="B213" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C213" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B215" s="31" t="s">
+      <c r="B215" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" s="49"/>
+      <c r="D217" s="49"/>
+      <c r="E217" s="49"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="33"/>
+      <c r="C218" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E218" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C215" s="31" t="s">
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E215" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B216" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C216" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="44" t="s">
+      <c r="C219" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D219" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E219" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="C217" s="44"/>
-      <c r="D217" s="44"/>
-      <c r="E217" s="44"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B218" s="34"/>
-      <c r="C218" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D218" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E218" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B219" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C219" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D219" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E219" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="35" t="s">
-        <v>41</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="24"/>
       <c r="E220" s="24"/>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B221" s="35" t="s">
-        <v>42</v>
+      <c r="B221" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D221" s="24"/>
       <c r="E221" s="24"/>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B222" s="35" t="s">
-        <v>43</v>
+      <c r="B222" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D222" s="24"/>
       <c r="E222" s="24"/>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B223" s="35" t="s">
-        <v>46</v>
+      <c r="B223" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D223" s="24"/>
       <c r="E223" s="24"/>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B224" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C224" s="36"/>
+      <c r="B224" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C224" s="35"/>
       <c r="D224" s="24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B225" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C225" s="36"/>
+      <c r="B225" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C225" s="35"/>
       <c r="D225" s="24"/>
       <c r="E225" s="24"/>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B226" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C226" s="44"/>
-      <c r="D226" s="44"/>
+      <c r="B226" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C226" s="49"/>
+      <c r="D226" s="49"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B227" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E227" s="21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B228" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D228" s="24"/>
-      <c r="E228" s="37"/>
+      <c r="E228" s="36"/>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B229" s="35" t="s">
-        <v>62</v>
+      <c r="B229" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="C229" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B230" s="35" t="s">
-        <v>64</v>
+      <c r="B230" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="C230" s="24">
         <v>2</v>
@@ -3642,8 +5746,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,25 +5768,25 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="PRP-OMP" vaccineIds="136, 1350"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="PRP-OMP" vaccineIds="51, 49"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B5&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C5&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Series Dose" vaccineIds="128, 1320, 1330, 1340, 136, 1350, 115, 121, 142, 213, 227"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Series Dose" vaccineIds="120, 17, 47, 49, 48, 51, 22, 46, 132, 120, 148"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B7&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C7&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Booster Dose" vaccineIds="128, 1330, 1340, 136, 1350, 113, 121, 1320, 115, 121, 213, 227"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Booster Dose" vaccineIds="50, 120, 17, 47, 49, 48, 51, 22, 46, 120, 148"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B9&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C9&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="TriHIBit" vaccineIds="113"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="TriHIBit" vaccineIds="50"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -4440,8 +6544,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AG64"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -4457,52 +6561,52 @@
   <sheetData>
     <row r="1" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
@@ -4535,62 +6639,62 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H5" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
+      <c r="H5" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H7" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
+      <c r="H7" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H8" s="9"/>
@@ -4615,48 +6719,48 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H9" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
+      <c r="H9" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H11" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
+      <c r="H11" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H12" s="9"/>
@@ -4673,38 +6777,38 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H13" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
+      <c r="H13" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H15" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="H15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="H16" s="9"/>
@@ -4721,69 +6825,69 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H17" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
+      <c r="H17" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
+      <c r="B25" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
@@ -4816,14 +6920,14 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B29" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
+      <c r="B29" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -4849,42 +6953,42 @@
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D31" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
     </row>
     <row r="33" spans="6:33" x14ac:dyDescent="0.2">
       <c r="G33" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4904,10 +7008,10 @@
     </row>
     <row r="34" spans="6:33" x14ac:dyDescent="0.2">
       <c r="G34" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4927,42 +7031,42 @@
     </row>
     <row r="36" spans="6:33" x14ac:dyDescent="0.2">
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
     </row>
     <row r="38" spans="6:33" x14ac:dyDescent="0.2">
       <c r="I38" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -4982,10 +7086,10 @@
     </row>
     <row r="39" spans="6:33" x14ac:dyDescent="0.2">
       <c r="I39" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -5005,42 +7109,42 @@
     </row>
     <row r="41" spans="6:33" x14ac:dyDescent="0.2">
       <c r="J41" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N41" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
     </row>
     <row r="43" spans="6:33" x14ac:dyDescent="0.2">
       <c r="M43" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -5060,10 +7164,10 @@
     </row>
     <row r="44" spans="6:33" x14ac:dyDescent="0.2">
       <c r="M44" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -5083,42 +7187,42 @@
     </row>
     <row r="46" spans="6:33" x14ac:dyDescent="0.2">
       <c r="N46" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="6:33" x14ac:dyDescent="0.2">
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE47" s="59"/>
-      <c r="AF47" s="59"/>
-      <c r="AG47" s="59"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="50"/>
+      <c r="V47" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+      <c r="AD47" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE47" s="64"/>
+      <c r="AF47" s="64"/>
+      <c r="AG47" s="64"/>
     </row>
     <row r="48" spans="6:33" x14ac:dyDescent="0.2">
       <c r="Q48" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R48" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -5138,10 +7242,10 @@
     </row>
     <row r="49" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q49" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R49" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
@@ -5161,46 +7265,46 @@
     </row>
     <row r="51" spans="4:33" x14ac:dyDescent="0.2">
       <c r="D51" s="13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
     </row>
     <row r="53" spans="4:33" x14ac:dyDescent="0.2">
       <c r="G53" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -5218,14 +7322,14 @@
     </row>
     <row r="54" spans="4:33" x14ac:dyDescent="0.2">
       <c r="G54" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -5243,46 +7347,46 @@
     </row>
     <row r="56" spans="4:33" x14ac:dyDescent="0.2">
       <c r="F56" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="59"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
     </row>
     <row r="58" spans="4:33" x14ac:dyDescent="0.2">
       <c r="I58" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -5300,14 +7404,14 @@
     </row>
     <row r="59" spans="4:33" x14ac:dyDescent="0.2">
       <c r="I59" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5325,46 +7429,46 @@
     </row>
     <row r="61" spans="4:33" x14ac:dyDescent="0.2">
       <c r="N61" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="R61" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="W62" s="46"/>
-      <c r="X62" s="46"/>
-      <c r="Y62" s="46"/>
-      <c r="Z62" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA62" s="45"/>
-      <c r="AB62" s="45"/>
-      <c r="AC62" s="45"/>
-      <c r="AD62" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE62" s="59"/>
-      <c r="AF62" s="59"/>
-      <c r="AG62" s="59"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA62" s="50"/>
+      <c r="AB62" s="50"/>
+      <c r="AC62" s="50"/>
+      <c r="AD62" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE62" s="64"/>
+      <c r="AF62" s="64"/>
+      <c r="AG62" s="64"/>
     </row>
     <row r="63" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q63" s="14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="R63" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
@@ -5382,14 +7486,14 @@
     </row>
     <row r="64" spans="4:33" x14ac:dyDescent="0.2">
       <c r="Q64" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R64" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
